--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:39:32+00:00</t>
+    <t>2024-02-05T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1420,17 +1420,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1439,27 +1439,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:53:04+00:00</t>
+    <t>2024-02-06T11:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:30:33+00:00</t>
+    <t>2024-02-06T12:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:19:49+00:00</t>
+    <t>2024-02-06T14:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T14:33:31+00:00</t>
+    <t>2024-02-06T16:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T16:19:49+00:00</t>
+    <t>2024-02-07T07:23:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1420,17 +1420,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1439,27 +1439,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T07:23:51+00:00</t>
+    <t>2024-02-07T10:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:40:08+00:00</t>
+    <t>2024-02-07T12:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:16:01+00:00</t>
+    <t>2024-02-07T13:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:26:07+00:00</t>
+    <t>2024-02-07T16:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T11:21:17+00:00</t>
+    <t>2024-02-08T16:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T16:46:36+00:00</t>
+    <t>2024-02-09T06:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1420,17 +1420,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1439,27 +1439,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T06:56:29+00:00</t>
+    <t>2024-02-10T09:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$40</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T09:00:37+00:00</t>
+    <t>2024-02-29T07:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1237,6 +1240,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1587,7 +1605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -1934,7 +1952,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2168,7 +2186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2285,7 +2303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2402,7 +2420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2657,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -2753,7 +2771,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2870,7 +2888,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>165</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>172</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>178</v>
       </c>
@@ -3211,7 +3229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>184</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>190</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>197</v>
       </c>
@@ -3552,7 +3570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>205</v>
       </c>
@@ -3667,7 +3685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>211</v>
       </c>
@@ -3784,7 +3802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>220</v>
       </c>
@@ -3899,7 +3917,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>227</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>235</v>
       </c>
@@ -4129,7 +4147,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>244</v>
       </c>
@@ -4244,7 +4262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>251</v>
       </c>
@@ -4359,7 +4377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>257</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4474,7 +4492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>262</v>
       </c>
@@ -4591,7 +4609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>270</v>
       </c>
@@ -4708,7 +4726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>277</v>
       </c>
@@ -4823,7 +4841,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>281</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>288</v>
       </c>
@@ -5053,7 +5071,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>297</v>
       </c>
@@ -5168,7 +5186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>301</v>
       </c>
@@ -5285,7 +5303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>304</v>
       </c>
@@ -5404,7 +5422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>309</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>318</v>
       </c>
@@ -5636,7 +5654,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>326</v>
       </c>
@@ -5751,7 +5769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>333</v>
       </c>
@@ -5866,7 +5884,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>341</v>
       </c>
@@ -5981,7 +5999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>345</v>
       </c>
@@ -6099,6 +6117,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO40">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:38:13+00:00</t>
+    <t>2024-03-05T15:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T15:05:36+00:00</t>
+    <t>2024-03-06T11:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T11:41:32+00:00</t>
+    <t>2024-03-06T15:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T15:16:08+00:00</t>
+    <t>2024-03-20T08:38:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:38:17+00:00</t>
+    <t>2024-03-20T10:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T10:33:47+00:00</t>
+    <t>2024-03-20T11:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T11:14:51+00:00</t>
+    <t>2024-03-20T16:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T16:58:46+00:00</t>
+    <t>2024-03-21T08:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:58:26+00:00</t>
+    <t>2024-03-21T14:16:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T11:42:20+00:00</t>
+    <t>2024-03-22T12:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T12:58:08+00:00</t>
+    <t>2024-03-22T14:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:34:11+00:00</t>
+    <t>2024-03-22T16:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:20:37+00:00</t>
+    <t>2024-03-25T12:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:19:57+00:00</t>
+    <t>2024-03-25T15:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:09:50+00:00</t>
+    <t>2024-03-25T16:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:04:49+00:00</t>
+    <t>2024-03-26T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T07:33:19+00:00</t>
+    <t>2024-03-26T12:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T12:37:11+00:00</t>
+    <t>2024-03-26T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:28:58+00:00</t>
+    <t>2024-03-26T14:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:52:36+00:00</t>
+    <t>2024-03-27T10:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T10:43:47+00:00</t>
+    <t>2024-03-27T12:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T12:02:55+00:00</t>
+    <t>2024-03-28T06:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,17 +1438,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1457,27 +1457,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T06:59:04+00:00</t>
+    <t>2024-03-28T07:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T07:27:12+00:00</t>
+    <t>2024-03-28T15:35:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:35:10+00:00</t>
+    <t>2024-04-04T07:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -493,6 +493,206 @@
     <t>SCH-1, SCH-2, ARQ-1, ARQ-2</t>
   </si>
   <si>
+    <t>Appointment.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Appointment.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>Appointment.status</t>
   </si>
   <si>
@@ -506,9 +706,6 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The free/busy status of an appointment.</t>
   </si>
   <si>
@@ -533,43 +730,52 @@
     <t>Appointment.cancelationReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>The coded reason for the appointment being cancelled</t>
+  </si>
+  <si>
+    <t>The coded reason for the appointment being cancelled. This is often used in reporting/billing/futher processing to determine if further actions are required, or specific fees apply.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+  </si>
+  <si>
+    <t>Appointment.serviceCategory</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
 </t>
   </si>
   <si>
-    <t>The coded reason for the appointment being cancelled</t>
-  </si>
-  <si>
-    <t>The coded reason for the appointment being cancelled. This is often used in reporting/billing/futher processing to determine if further actions are required, or specific fees apply.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Appointment.serviceCategory</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
     <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
   </si>
   <si>
     <t>CATEGORIES</t>
   </si>
   <si>
+    <t>Appointment.serviceCategory:class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Classification when becoming an encounter</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
     <t>Appointment.serviceType</t>
   </si>
   <si>
@@ -582,7 +788,7 @@
     <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>https://fhir.nhs.uk/ValueSet/NHSDigital-CareSettingType</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -597,7 +803,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>https://fhir.hl7.org.uk/ValueSet/UKCore-PracticeSettingCode</t>
   </si>
   <si>
     <t>.performer.AssignedPerson.code</t>
@@ -703,10 +909,6 @@
     <t>Appointment.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Shown on a subject line in a meeting request, or appointment list</t>
   </si>
   <si>
@@ -946,22 +1148,7 @@
     <t>Appointment.participant.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Appointment.participant.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Appointment.participant.modifierExtension</t>
@@ -997,9 +1184,6 @@
 This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Role of participant in encounter.</t>
   </si>
   <si>
@@ -1037,6 +1221,113 @@
     <t>PID-3-Patient ID List | AIL-3 | AIG-3 | AIP-3</t>
   </si>
   <si>
+    <t>Appointment.participant.actor.id</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.extension</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.id</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.extension</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.use</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.type</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.system</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.value</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.period</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Appointment.participant.required</t>
   </si>
   <si>
@@ -1083,10 +1374,6 @@
   </si>
   <si>
     <t>Appointment.participant.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Participation period of the actor</t>
@@ -1429,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1438,8 +1725,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.83203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
@@ -1457,16 +1744,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2784,7 +3071,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
@@ -2793,23 +3080,21 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2834,77 +3119,77 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2913,18 +3198,20 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2949,47 +3236,49 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3003,10 +3292,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3017,28 +3306,32 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3062,11 +3355,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3084,13 +3379,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -3102,24 +3397,24 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3130,7 +3425,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3142,18 +3437,20 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3177,11 +3474,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3199,13 +3498,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3214,10 +3513,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3226,15 +3525,15 @@
         <v>76</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3242,10 +3541,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3257,16 +3556,20 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3278,7 +3581,7 @@
         <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>76</v>
@@ -3290,11 +3593,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3312,13 +3617,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3330,24 +3635,24 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3355,7 +3660,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -3370,15 +3675,17 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3391,7 +3698,7 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>76</v>
@@ -3403,11 +3710,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3425,7 +3734,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3443,24 +3752,24 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3471,7 +3780,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3483,13 +3792,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3516,13 +3825,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3540,13 +3849,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3555,10 +3864,10 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3567,15 +3876,15 @@
         <v>76</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3586,7 +3895,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3595,18 +3904,20 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3655,13 +3966,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3670,10 +3981,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3682,15 +3993,15 @@
         <v>76</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3698,7 +4009,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -3707,22 +4018,22 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3748,13 +4059,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3772,10 +4083,10 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>87</v>
@@ -3787,27 +4098,27 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3827,16 +4138,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3863,13 +4174,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3887,7 +4196,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3905,24 +4214,24 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3930,7 +4239,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3942,16 +4251,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3978,31 +4287,27 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4017,16 +4322,16 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4034,18 +4339,20 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4060,13 +4367,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4093,13 +4400,11 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4117,13 +4422,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4132,27 +4437,27 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4163,7 +4468,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4175,15 +4480,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4208,13 +4515,11 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4232,13 +4537,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4247,19 +4552,19 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -4278,7 +4583,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4287,16 +4592,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4323,13 +4628,11 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4353,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4362,16 +4665,16 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>76</v>
@@ -4393,25 +4696,25 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4438,13 +4741,11 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4468,7 +4769,7 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4483,21 +4784,21 @@
         <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4508,7 +4809,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4517,20 +4818,18 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" t="s" s="2">
         <v>266</v>
       </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4555,13 +4854,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4579,13 +4878,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4594,27 +4893,27 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4625,7 +4924,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4637,17 +4936,15 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4696,13 +4993,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4711,27 +5008,27 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4754,15 +5051,17 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4811,7 +5110,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4826,38 +5125,38 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>226</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4869,13 +5168,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4926,13 +5225,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4941,27 +5240,27 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4969,7 +5268,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -4984,13 +5283,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5041,10 +5340,10 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -5053,30 +5352,30 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5096,16 +5395,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5156,7 +5455,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5168,41 +5467,41 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5211,20 +5510,18 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5273,78 +5570,74 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5392,28 +5685,28 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -5424,10 +5717,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5441,26 +5734,24 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5485,13 +5776,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5509,7 +5800,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5527,24 +5818,24 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5564,18 +5855,20 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5624,7 +5917,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5639,27 +5932,27 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5679,18 +5972,20 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5715,13 +6010,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5739,7 +6034,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5754,27 +6049,27 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5782,7 +6077,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -5794,16 +6089,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5830,13 +6125,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5854,10 +6149,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
@@ -5872,35 +6167,35 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>340</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5912,13 +6207,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5969,13 +6264,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5984,10 +6279,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6001,10 +6296,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6012,7 +6307,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6027,17 +6322,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6086,10 +6379,10 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6098,26 +6391,2709 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>350</v>
+      <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO40">
+  <autoFilter ref="A1:AO63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6127,7 +9103,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T07:58:12+01:00</t>
+    <t>2024-04-09T11:34:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1725,17 +1725,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.45703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,27 +1744,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T11:34:38+01:00</t>
+    <t>2024-04-09T14:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T14:59:55+01:00</t>
+    <t>2024-04-12T08:32:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1725,17 +1725,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.45703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.83203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,27 +1744,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:32:19+01:00</t>
+    <t>2024-04-12T10:30:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1725,17 +1725,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.45703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,27 +1744,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:30:08+01:00</t>
+    <t>2024-04-12T11:43:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:43:38+01:00</t>
+    <t>2024-04-15T10:54:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:54:06+01:00</t>
+    <t>2024-04-19T04:03:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1725,17 +1725,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.45703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.83203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,27 +1744,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T04:03:07+01:00</t>
+    <t>2024-04-23T08:00:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T08:00:23+01:00</t>
+    <t>2024-04-24T08:46:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
